--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H2">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I2">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J2">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>1080.763489328977</v>
+        <v>1491.060432626307</v>
       </c>
       <c r="R2">
-        <v>9726.871403960789</v>
+        <v>13419.54389363676</v>
       </c>
       <c r="S2">
-        <v>0.01240168288003864</v>
+        <v>0.02463802821738583</v>
       </c>
       <c r="T2">
-        <v>0.01240168288003864</v>
+        <v>0.02463802821738583</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H3">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I3">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J3">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>1660.380956782871</v>
+        <v>1227.898299231633</v>
       </c>
       <c r="R3">
-        <v>14943.42861104584</v>
+        <v>11051.0846930847</v>
       </c>
       <c r="S3">
-        <v>0.01905275140156811</v>
+        <v>0.0202895820200006</v>
       </c>
       <c r="T3">
-        <v>0.01905275140156811</v>
+        <v>0.0202895820200006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H4">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I4">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J4">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>829.6807554793512</v>
+        <v>708.4134058185313</v>
       </c>
       <c r="R4">
-        <v>7467.12679931416</v>
+        <v>6375.720652366781</v>
       </c>
       <c r="S4">
-        <v>0.00952052666723067</v>
+        <v>0.01170570226411856</v>
       </c>
       <c r="T4">
-        <v>0.009520526667230668</v>
+        <v>0.01170570226411856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H5">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I5">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J5">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>1320.584380108361</v>
+        <v>716.0321579495402</v>
       </c>
       <c r="R5">
-        <v>11885.25942097525</v>
+        <v>6444.28942154586</v>
       </c>
       <c r="S5">
-        <v>0.0151536102580637</v>
+        <v>0.01183159322459053</v>
       </c>
       <c r="T5">
-        <v>0.0151536102580637</v>
+        <v>0.01183159322459052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H6">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I6">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J6">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>663.3582361489933</v>
+        <v>539.3379306686786</v>
       </c>
       <c r="R6">
-        <v>5970.22412534094</v>
+        <v>4854.041376018107</v>
       </c>
       <c r="S6">
-        <v>0.007611987786235654</v>
+        <v>0.00891192795661268</v>
       </c>
       <c r="T6">
-        <v>0.007611987786235654</v>
+        <v>0.00891192795661268</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H7">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I7">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J7">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>870.8379887092557</v>
+        <v>902.3589397406814</v>
       </c>
       <c r="R7">
-        <v>7837.541898383301</v>
+        <v>8121.230457666133</v>
       </c>
       <c r="S7">
-        <v>0.00999280294208334</v>
+        <v>0.01491042518000556</v>
       </c>
       <c r="T7">
-        <v>0.00999280294208334</v>
+        <v>0.01491042518000555</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H8">
         <v>165.227989</v>
       </c>
       <c r="I8">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J8">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>5221.196246076545</v>
+        <v>9740.470692261977</v>
       </c>
       <c r="R8">
-        <v>46990.76621468891</v>
+        <v>87664.2362303578</v>
       </c>
       <c r="S8">
-        <v>0.05991284933070083</v>
+        <v>0.1609498760180139</v>
       </c>
       <c r="T8">
-        <v>0.05991284933070085</v>
+        <v>0.1609498760180139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H9">
         <v>165.227989</v>
       </c>
       <c r="I9">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J9">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
-        <v>8021.343156211002</v>
+        <v>8021.343156211003</v>
       </c>
       <c r="R9">
-        <v>72192.08840589902</v>
+        <v>72192.08840589903</v>
       </c>
       <c r="S9">
-        <v>0.09204433261995272</v>
+        <v>0.1325433058913393</v>
       </c>
       <c r="T9">
-        <v>0.09204433261995273</v>
+        <v>0.1325433058913393</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H10">
         <v>165.227989</v>
       </c>
       <c r="I10">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J10">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>4008.209093592107</v>
+        <v>4627.766833854585</v>
       </c>
       <c r="R10">
-        <v>36073.88184232896</v>
+        <v>41649.90150469126</v>
       </c>
       <c r="S10">
-        <v>0.04599390947827021</v>
+        <v>0.0764684296766979</v>
       </c>
       <c r="T10">
-        <v>0.04599390947827021</v>
+        <v>0.0764684296766979</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H11">
         <v>165.227989</v>
       </c>
       <c r="I11">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J11">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>6379.77714470173</v>
+        <v>4677.536937211824</v>
       </c>
       <c r="R11">
-        <v>57417.99430231557</v>
+        <v>42097.83243490641</v>
       </c>
       <c r="S11">
-        <v>0.07320748135471632</v>
+        <v>0.07729082237391273</v>
       </c>
       <c r="T11">
-        <v>0.07320748135471633</v>
+        <v>0.07729082237391273</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H12">
         <v>165.227989</v>
       </c>
       <c r="I12">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J12">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>3204.700719984084</v>
+        <v>3523.267864904913</v>
       </c>
       <c r="R12">
-        <v>28842.30647985676</v>
+        <v>31709.41078414422</v>
       </c>
       <c r="S12">
-        <v>0.03677370900024585</v>
+        <v>0.05821787713864685</v>
       </c>
       <c r="T12">
-        <v>0.03677370900024586</v>
+        <v>0.05821787713864685</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H13">
         <v>165.227989</v>
       </c>
       <c r="I13">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J13">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>4207.040747104288</v>
+        <v>5894.731436849493</v>
       </c>
       <c r="R13">
-        <v>37863.36672393859</v>
+        <v>53052.58293164543</v>
       </c>
       <c r="S13">
-        <v>0.04827548832296524</v>
+        <v>0.09740353663546519</v>
       </c>
       <c r="T13">
-        <v>0.04827548832296526</v>
+        <v>0.09740353663546519</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H14">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I14">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J14">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>1277.896145489188</v>
+        <v>205.5524897021266</v>
       </c>
       <c r="R14">
-        <v>11501.06530940269</v>
+        <v>1849.97240731914</v>
       </c>
       <c r="S14">
-        <v>0.01466376585299005</v>
+        <v>0.003396514273076522</v>
       </c>
       <c r="T14">
-        <v>0.01466376585299005</v>
+        <v>0.003396514273076522</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H15">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I15">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J15">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>1963.236587529302</v>
+        <v>169.2738583797733</v>
       </c>
       <c r="R15">
-        <v>17669.12928776372</v>
+        <v>1523.46472541796</v>
       </c>
       <c r="S15">
-        <v>0.02252799786208954</v>
+        <v>0.00279705235815339</v>
       </c>
       <c r="T15">
-        <v>0.02252799786208954</v>
+        <v>0.00279705235815339</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H16">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I16">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J16">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>981.015596735142</v>
+        <v>97.65944834836667</v>
       </c>
       <c r="R16">
-        <v>8829.140370616278</v>
+        <v>878.9350351353</v>
       </c>
       <c r="S16">
-        <v>0.01125708302621776</v>
+        <v>0.001613708064040904</v>
       </c>
       <c r="T16">
-        <v>0.01125708302621776</v>
+        <v>0.001613708064040904</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H17">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I17">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J17">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>1561.460676453347</v>
+        <v>98.70974345021834</v>
       </c>
       <c r="R17">
-        <v>14053.14608808012</v>
+        <v>888.387691051965</v>
       </c>
       <c r="S17">
-        <v>0.01791764833862789</v>
+        <v>0.001631062961126078</v>
       </c>
       <c r="T17">
-        <v>0.01791764833862789</v>
+        <v>0.001631062961126078</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H18">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I18">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J18">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>784.3556350886964</v>
+        <v>74.35128182193833</v>
       </c>
       <c r="R18">
-        <v>7059.200715798269</v>
+        <v>669.1615363974449</v>
       </c>
       <c r="S18">
-        <v>0.009000424188626887</v>
+        <v>0.001228567896675472</v>
       </c>
       <c r="T18">
-        <v>0.00900042418862689</v>
+        <v>0.001228567896675472</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H19">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I19">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J19">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>1029.679962456961</v>
+        <v>124.3961160862983</v>
       </c>
       <c r="R19">
-        <v>9267.119662112651</v>
+        <v>1119.565044776685</v>
       </c>
       <c r="S19">
-        <v>0.01181550310350491</v>
+        <v>0.002055500200531139</v>
       </c>
       <c r="T19">
-        <v>0.01181550310350491</v>
+        <v>0.002055500200531139</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H20">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I20">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J20">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>5447.62227739541</v>
+        <v>4263.633003059344</v>
       </c>
       <c r="R20">
-        <v>49028.60049655869</v>
+        <v>38372.6970275341</v>
       </c>
       <c r="S20">
-        <v>0.06251107166512269</v>
+        <v>0.07045154437699497</v>
       </c>
       <c r="T20">
-        <v>0.06251107166512271</v>
+        <v>0.07045154437699497</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H21">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I21">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J21">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>8369.202307851281</v>
+        <v>3511.130466914155</v>
       </c>
       <c r="R21">
-        <v>75322.82077066152</v>
+        <v>31600.1742022274</v>
       </c>
       <c r="S21">
-        <v>0.09603599122810991</v>
+        <v>0.05801732084485852</v>
       </c>
       <c r="T21">
-        <v>0.09603599122810992</v>
+        <v>0.05801732084485852</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H22">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I22">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J22">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>4182.031879594497</v>
+        <v>2025.682333704945</v>
       </c>
       <c r="R22">
-        <v>37638.28691635047</v>
+        <v>18231.1410033445</v>
       </c>
       <c r="S22">
-        <v>0.04798851337691309</v>
+        <v>0.03347202930559599</v>
       </c>
       <c r="T22">
-        <v>0.04798851337691309</v>
+        <v>0.03347202930559599</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H23">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I23">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J23">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>6656.447001855464</v>
+        <v>2047.467877950581</v>
       </c>
       <c r="R23">
-        <v>59908.02301669918</v>
+        <v>18427.21090155523</v>
       </c>
       <c r="S23">
-        <v>0.07638224795699722</v>
+        <v>0.03383200992214933</v>
       </c>
       <c r="T23">
-        <v>0.07638224795699722</v>
+        <v>0.03383200992214933</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H24">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I24">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J24">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>3343.678002467188</v>
+        <v>1542.217170199047</v>
       </c>
       <c r="R24">
-        <v>30093.1020222047</v>
+        <v>13879.95453179143</v>
       </c>
       <c r="S24">
-        <v>0.03836846326600582</v>
+        <v>0.02548333342182112</v>
       </c>
       <c r="T24">
-        <v>0.03836846326600583</v>
+        <v>0.02548333342182112</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H25">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I25">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J25">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>4389.486205016235</v>
+        <v>2580.262524509114</v>
       </c>
       <c r="R25">
-        <v>39505.37584514612</v>
+        <v>23222.36272058203</v>
       </c>
       <c r="S25">
-        <v>0.05036903675818508</v>
+        <v>0.04263581776839452</v>
       </c>
       <c r="T25">
-        <v>0.05036903675818509</v>
+        <v>0.04263581776839452</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H26">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I26">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J26">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>252.629752933625</v>
+        <v>275.5030431231942</v>
       </c>
       <c r="R26">
-        <v>2273.667776402625</v>
+        <v>2479.527388108748</v>
       </c>
       <c r="S26">
-        <v>0.002898908144917591</v>
+        <v>0.004552365284409709</v>
       </c>
       <c r="T26">
-        <v>0.002898908144917592</v>
+        <v>0.004552365284409709</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H27">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I27">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J27">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>388.1160263363333</v>
+        <v>226.8786098013857</v>
       </c>
       <c r="R27">
-        <v>3493.044237027</v>
+        <v>2041.907488212472</v>
       </c>
       <c r="S27">
-        <v>0.00445360333394719</v>
+        <v>0.003748903443411773</v>
       </c>
       <c r="T27">
-        <v>0.004453603333947191</v>
+        <v>0.003748903443411773</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H28">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I28">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J28">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>193.9388648303333</v>
+        <v>130.8934532911622</v>
       </c>
       <c r="R28">
-        <v>1745.449783473</v>
+        <v>1178.04107962046</v>
       </c>
       <c r="S28">
-        <v>0.002225434448413677</v>
+        <v>0.002162861092074176</v>
       </c>
       <c r="T28">
-        <v>0.002225434448413677</v>
+        <v>0.002162861092074176</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H29">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I29">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J29">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>308.6881718052083</v>
+        <v>132.3011691361848</v>
       </c>
       <c r="R29">
-        <v>2778.193546246875</v>
+        <v>1190.710522225663</v>
       </c>
       <c r="S29">
-        <v>0.00354217444736587</v>
+        <v>0.002186121948544385</v>
       </c>
       <c r="T29">
-        <v>0.00354217444736587</v>
+        <v>0.002186121948544385</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H30">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I30">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J30">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>155.06077782925</v>
+        <v>99.65339963402211</v>
       </c>
       <c r="R30">
-        <v>1395.54700046325</v>
+        <v>896.8805967061991</v>
       </c>
       <c r="S30">
-        <v>0.001779311211710569</v>
+        <v>0.001646655774921771</v>
       </c>
       <c r="T30">
-        <v>0.001779311211710569</v>
+        <v>0.001646655774921771</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H31">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I31">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J31">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>203.5594171204167</v>
+        <v>166.7287444883075</v>
       </c>
       <c r="R31">
-        <v>1832.03475408375</v>
+        <v>1500.558700394767</v>
       </c>
       <c r="S31">
-        <v>0.0023358295901912</v>
+        <v>0.00275499733040113</v>
       </c>
       <c r="T31">
-        <v>0.0023358295901912</v>
+        <v>0.00275499733040113</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H32">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I32">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J32">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>1377.619079151419</v>
+        <v>180.5115175190009</v>
       </c>
       <c r="R32">
-        <v>12398.57171236277</v>
+        <v>1624.603657671008</v>
       </c>
       <c r="S32">
-        <v>0.01580807930487579</v>
+        <v>0.002982741520652308</v>
       </c>
       <c r="T32">
-        <v>0.0158080793048758</v>
+        <v>0.002982741520652308</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H33">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I33">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J33">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>2116.441300347732</v>
+        <v>148.6524492926791</v>
       </c>
       <c r="R33">
-        <v>19047.97170312959</v>
+        <v>1337.872043634112</v>
       </c>
       <c r="S33">
-        <v>0.02428601086203019</v>
+        <v>0.002456307712361144</v>
       </c>
       <c r="T33">
-        <v>0.02428601086203019</v>
+        <v>0.002456307712361144</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H34">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I34">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J34">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>1057.570920593156</v>
+        <v>85.76230454312889</v>
       </c>
       <c r="R34">
-        <v>9518.138285338408</v>
+        <v>771.8607408881601</v>
       </c>
       <c r="S34">
-        <v>0.01213554983106441</v>
+        <v>0.001417121689427335</v>
       </c>
       <c r="T34">
-        <v>0.01213554983106441</v>
+        <v>0.001417121689427335</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H35">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I35">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J35">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>1683.312080422119</v>
+        <v>86.68464979398313</v>
       </c>
       <c r="R35">
-        <v>15149.80872379907</v>
+        <v>780.1618481458481</v>
       </c>
       <c r="S35">
-        <v>0.01931588438696669</v>
+        <v>0.001432362365002565</v>
       </c>
       <c r="T35">
-        <v>0.01931588438696669</v>
+        <v>0.001432362365002565</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H36">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I36">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J36">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>845.5642436611912</v>
+        <v>65.29360325730045</v>
       </c>
       <c r="R36">
-        <v>7610.078192950721</v>
+        <v>587.642429315704</v>
       </c>
       <c r="S36">
-        <v>0.009702788545435237</v>
+        <v>0.001078900361291621</v>
       </c>
       <c r="T36">
-        <v>0.009702788545435239</v>
+        <v>0.001078900361291621</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H37">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I37">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J37">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>1110.032897984532</v>
+        <v>109.2418375508258</v>
       </c>
       <c r="R37">
-        <v>9990.29608186079</v>
+        <v>983.1765379574321</v>
       </c>
       <c r="S37">
-        <v>0.01273754722761928</v>
+        <v>0.001805093487294539</v>
       </c>
       <c r="T37">
-        <v>0.01273754722761928</v>
+        <v>0.001805093487294539</v>
       </c>
     </row>
   </sheetData>
